--- a/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-36,8%</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>287,08%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>332,87%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,32%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 5,71</t>
+          <t>-15,46; 16,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 12,16</t>
+          <t>-12,23; 8,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 10,52</t>
+          <t>-0,77; 22,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,88; 90,97</t>
+          <t>-9,79; 13,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-81,76; 591,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-85,63; 498,6</t>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,36</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,78</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>194,76%</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>369,07%</t>
+          <t>334,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>486,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 26,3</t>
+          <t>3,39; 26,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 34,03</t>
+          <t>8,47; 35,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 16,47</t>
+          <t>-33,49; 15,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 737,97</t>
+          <t>-27,7; 25,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,14; 1550,49</t>
+          <t>-11,16; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 288,0</t>
+          <t>20,07; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-85,78; 400,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-67,22; 681,01</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>-14,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>12,09%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-43,38%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 15,26</t>
+          <t>-11,84; 15,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 14,02</t>
+          <t>-11,12; 17,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 16,85</t>
+          <t>-5,84; 19,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 104,56</t>
+          <t>-31,14; 0,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 79,85</t>
+          <t>-38,35; 110,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 140,0</t>
+          <t>-32,39; 108,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-23,65; 169,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-69,8; 5,24</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>28,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>20,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>19,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>127,83%</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>298,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>121,29%</t>
+          <t>93,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>135,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52,32%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 26,44</t>
+          <t>16,12; 39,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 24,38</t>
+          <t>5,42; 33,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 26,63</t>
+          <t>7,4; 31,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,85; 308,79</t>
+          <t>-1,26; 26,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,16; 185,8</t>
+          <t>93,55; 781,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,53; 301,1</t>
+          <t>14,13; 229,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 360,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 169,23</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>21,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>112,28%</t>
+          <t>118,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>118,75%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 23,83</t>
+          <t>2,14; 34,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 32,33</t>
+          <t>5,58; 39,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 17,87</t>
+          <t>-13,54; 22,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 234,47</t>
+          <t>-13,11; 25,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 261,35</t>
+          <t>5,58; 328,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 122,11</t>
+          <t>16,2; 367,61</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-49,14; 186,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,8; 97,1</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,89</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>85,82%</t>
+          <t>29,27</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>117,94%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 25,99</t>
+          <t>-11,57; 23,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 22,08</t>
+          <t>-11,59; 25,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 18,61</t>
+          <t>-6,63; 24,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 296,23</t>
+          <t>6,2; 52,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 321,59</t>
+          <t>-49,1; 280,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,84; 211,75</t>
+          <t>-50,42; 340,34</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,04; 488,43</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 372,73</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>82,11%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55,43%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 14,93</t>
+          <t>7,08; 18,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,18</t>
+          <t>6,31; 18,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 12,42</t>
+          <t>-0,63; 14,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,69; 124,32</t>
+          <t>-1,45; 15,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,93; 141,15</t>
+          <t>40,63; 180,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 105,45</t>
+          <t>32,6; 144,65</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 122,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 81,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>19,92%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>332,87%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36,32%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.333149137962401</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.878325987474157</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.333953589554485</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.256942092131161</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2212106166343007</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6142045831074868</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.408542567594826</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3736407421805859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,46; 16,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,23; 8,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 22,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 13,94</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-81,76; 591,58</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.0432087868624</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.396855282950131</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.997455581301795</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-9.23795468525358</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7829185886479982</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.4047713947726</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.5772896346529</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.66151654514257</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.06779499807462</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>6.300037905984085</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,32</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>334,96%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>486,95%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>38,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 26,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,47; 35,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-33,49; 15,86</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-27,7; 25,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>20,07; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-85,78; 400,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-67,22; 681,01</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.428890205111</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>22.90857597176972</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.990103530732489</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.663653059342272</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.552993045921238</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>5.668331650381355</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.05270535305964626</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.307094704131359</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-14,64</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,62%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>37,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-43,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.71871505625773</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>10.29073766051105</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-31.73924583165535</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-28.63426925111618</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.6443545331376673</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.5307037908261253</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8399467248688647</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6878290692112176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 15,15</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,12; 17,87</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,84; 19,56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-31,14; 0,16</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-38,35; 110,1</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 108,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; 169,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-69,8; 5,24</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>23.74555442654347</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>38.43042754810358</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.61775069026939</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.12119071490788</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>3.609400039464425</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.746271526752444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +813,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>28,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>19,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>12,63</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>298,69%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>93,81%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>135,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>52,32%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.914075955413659</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.018916560898017</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.060998078746433</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-15.00557847175401</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.136425049302266</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1578365057079815</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3523582058979947</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4362045016631992</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>16,12; 39,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 33,59</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 31,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 26,81</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>93,55; 781,95</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>14,13; 229,95</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>31,45; 360,37</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 169,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.76242694919381</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.22993798157414</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.495375720690326</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-30.65935418603703</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3825440681529574</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2951080504197565</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2459196670835809</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7012219210214907</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.41628965109828</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.3540141183709</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.60019590917076</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.6499468095908201</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.168700828012899</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.200059643805244</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.710042158213499</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.02915275658323893</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>19,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>21,81</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>118,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>118,75%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,89%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 34,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 39,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 22,55</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 25,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 328,45</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>16,2; 367,61</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-49,14; 186,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,8; 97,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>28.45356192661911</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>20.2706469347068</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>19.05429163777202</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.49269654964593</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.044815392803077</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.9978736579284926</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.29895957204447</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5290547246748515</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,03</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>29,27</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>38,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>32,15%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>65,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>117,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>17.08302884590596</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.081874634504493</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.76134096898682</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.562732032235422</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.9064454456932404</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1654845503702876</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.2917889249324595</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.04643411542459459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,57; 23,88</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; 25,27</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 24,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 52,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-49,1; 280,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-50,42; 340,34</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-42,04; 488,43</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 372,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>40.07783462382576</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>33.70402056489588</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>31.07006302916827</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>26.29327513641184</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>7.848759109943072</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.44534531713169</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.738422035794669</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.745791508263711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1013,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>12,88</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>12,67</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,48</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>98,13%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>55,43%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>20.11289090198563</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>21.68154240501883</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>4.465992335234745</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.859958225425221</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.311492482619243</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.261250982652374</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.2031066493478798</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.1631013081747948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 18,61</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 18,13</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 14,75</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 15,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>40,63; 180,86</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>32,6; 144,65</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 122,57</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 81,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>3.115931004414656</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>5.912792830648956</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-14.68283750063449</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-15.45945000462514</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.1066730867055568</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.2107152115565379</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.525524786366089</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3304605649893323</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>35.31061217472749</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>38.81267607892052</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>22.15383580809938</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>24.16350457819802</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.564899100914536</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>4.07446402668088</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.808177089410001</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.9047418325125068</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>7.979591711976306</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>6.028491525046298</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>7.780006572834089</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>25.59766287900946</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.521603078312279</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.341664535396062</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.6362277739688889</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1.002609856651014</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.690926328090812</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.8390601424917</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-6.94307050690998</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.659766688952046</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4193053300018539</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.5061831733138525</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.4456338186644975</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.04491602015118473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>25.0016664382273</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>26.12254191985316</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>24.54123953692227</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>49.62815042255676</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>3.534804790373817</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3.457304918689233</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>4.5775489871905</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>3.111809226796507</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>12.89097950186761</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>13.37939490313826</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.025486471237764</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6.349937388657622</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.9883037613533726</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.8937158464621224</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.513990691505675</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.2674094978246452</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>6.78447117452431</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>6.839725129552628</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.6641701128159828</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-2.92669270715001</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.3920749836425033</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.387940320965153</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.07430715539261258</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.1212840459670958</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>18.92207106369044</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18.83242437439983</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.2792743614773</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>14.31601100531098</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.898432772954375</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.559273250448251</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1.177516464485082</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.717830090909453</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1311,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
